--- a/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type2/pd_results_W5_H200_B16.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type2/pd_results_W5_H200_B16.xlsx
@@ -518,7 +518,7 @@
         <v>0.7126436781609196</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5029761904761905</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1512009482310271</v>
+        <v>0.1920695117740633</v>
       </c>
       <c r="J2" t="n">
-        <v>1941.941487273237</v>
+        <v>2581.283848781762</v>
       </c>
       <c r="K2" t="n">
-        <v>4813080.622695812</v>
+        <v>9632938.185916455</v>
       </c>
       <c r="L2" t="n">
-        <v>2193.873429050959</v>
+        <v>3103.697502321458</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1130064911470465</v>
+        <v>-0.7752359272352969</v>
       </c>
     </row>
   </sheetData>
